--- a/submission_pack/EGA_policy.xlsx
+++ b/submission_pack/EGA_policy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/work/ega-submissions/submission_pack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBB968-DA03-6547-94B0-C9B2AAB938BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573CC950-25A5-D248-B7CE-64377FEBDAD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44260" yWindow="480" windowWidth="22940" windowHeight="20900" activeTab="5" xr2:uid="{E1C644DA-B0F1-2040-B5CE-06EB24BA1ACA}"/>
+    <workbookView xWindow="44260" yWindow="480" windowWidth="22940" windowHeight="20900" activeTab="7" xr2:uid="{E1C644DA-B0F1-2040-B5CE-06EB24BA1ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO DAC" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
     <sheet name="INFO Policy" sheetId="1" r:id="rId5"/>
     <sheet name="Policy" sheetId="2" r:id="rId6"/>
+    <sheet name="INFO DUO" sheetId="8" r:id="rId7"/>
+    <sheet name="DUO" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Notes</t>
   </si>
@@ -123,6 +125,33 @@
   </si>
   <si>
     <t>Policy_links</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>The ontology database name for data use. Default is DUO.</t>
+  </si>
+  <si>
+    <t>The ID of the ontology in the database.</t>
+  </si>
+  <si>
+    <t>The version of this ontology.</t>
+  </si>
+  <si>
+    <t>The alias for the policy that this data use code should be applied to.</t>
+  </si>
+  <si>
+    <t>If a data use term is applied to a specific disease, please provide the ontological terms for such disease, separated by ",".</t>
   </si>
 </sst>
 </file>
@@ -698,7 +727,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -780,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4926A516-E8E5-DC43-9C9B-2A61C14EC092}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -812,4 +841,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFA2140-E969-8340-92B9-F2B771E79EDB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5728E758-7572-5445-B3C5-A1FF184820EE}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/submission_pack/EGA_policy.xlsx
+++ b/submission_pack/EGA_policy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/work/ega-submissions/submission_pack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573CC950-25A5-D248-B7CE-64377FEBDAD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A7F6C-A391-FA47-B506-4F4D5612A501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44260" yWindow="480" windowWidth="22940" windowHeight="20900" activeTab="7" xr2:uid="{E1C644DA-B0F1-2040-B5CE-06EB24BA1ACA}"/>
+    <workbookView xWindow="35160" yWindow="1820" windowWidth="30180" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO DAC" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="INFO DUO" sheetId="8" r:id="rId7"/>
     <sheet name="DUO" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Notes</t>
   </si>
@@ -67,15 +67,6 @@
     <t>Main_contact</t>
   </si>
   <si>
-    <t>"1" if this contact person is the main contact, otherwise "0".</t>
-  </si>
-  <si>
-    <t>The DAC this contact person is for.</t>
-  </si>
-  <si>
-    <t>The alias for this DAC (must be unique in this sheet).</t>
-  </si>
-  <si>
     <t>Name of the contact person.</t>
   </si>
   <si>
@@ -103,15 +94,9 @@
     <t>Policy_alias</t>
   </si>
   <si>
-    <t>The alias for this policy.</t>
-  </si>
-  <si>
     <t>Short text that can be used to call out data access policies in searches or in displays.</t>
   </si>
   <si>
-    <t>The alias for the DAC that this policy is associated with.</t>
-  </si>
-  <si>
     <t>Policy_text</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>File containing the policy text. (Must use either Policy_text or Policy_file field, not both)</t>
   </si>
   <si>
-    <t>Policy_links</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -145,13 +127,76 @@
     <t>The ID of the ontology in the database.</t>
   </si>
   <si>
-    <t>The version of this ontology.</t>
-  </si>
-  <si>
-    <t>The alias for the policy that this data use code should be applied to.</t>
-  </si>
-  <si>
-    <t>If a data use term is applied to a specific disease, please provide the ontological terms for such disease, separated by ",".</t>
+    <t>"1" if this contact person is the main contact, otherwise "0". This value defaults to 1.</t>
+  </si>
+  <si>
+    <t>Policy_link</t>
+  </si>
+  <si>
+    <t>Link(s) the the policy and related resources, in ';'? separated list</t>
+  </si>
+  <si>
+    <t>If a data use term is applied to a specific disease, please provide the ontological terms for such disease, separated by "," ( e.g. for HPO this would be HPO:0001234 ).</t>
+  </si>
+  <si>
+    <t>Initials of the middle name of the contact person.</t>
+  </si>
+  <si>
+    <t>Middle_initials</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Title of contact person.</t>
+  </si>
+  <si>
+    <t>Surname of the contact person.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address of the contact person.</t>
+  </si>
+  <si>
+    <t>The DAC this contact person is for. Either this or or DAC_ID must be submitted.</t>
+  </si>
+  <si>
+    <t>The DAC EGA DAC accession this contact person is for. Either this or DAC_alias must be submitted.</t>
+  </si>
+  <si>
+    <t>The alias for the DAC that this policy is administered by. Either this or or DAC_ID must be submitted.</t>
+  </si>
+  <si>
+    <t>The ID of the DAC this policy is administered by. Either this or or DAC_alias must be submitted.</t>
+  </si>
+  <si>
+    <t>The version of this ontology. Defaults to the latest version in the case of DUO</t>
+  </si>
+  <si>
+    <t>Policy_ID</t>
+  </si>
+  <si>
+    <t>The EGA accession for the policy that this data use code should be applied to. Either this or the Policy_alias must be given.</t>
+  </si>
+  <si>
+    <t>The alias for the policy that this data use code should be applied to. Either this or the Policy_alias must be given.</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL referencing the URL of the Ontology. </t>
+  </si>
+  <si>
+    <t>The EGA DAC accession. Either this or or DAC_alias must be submitted.</t>
+  </si>
+  <si>
+    <t>The alias for this DAC. Either this or or DAC_ID must be submitted.</t>
+  </si>
+  <si>
+    <t>The alias for this policy. Either this or the Policy_ID must be given.</t>
   </si>
 </sst>
 </file>
@@ -187,12 +232,24 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,11 +264,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BD133-06CB-7C4C-B543-6793C3CCBBC2}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" customWidth="1"/>
@@ -547,35 +609,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -584,27 +654,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F131916D-3C76-7048-A95F-2D358F707E88}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -613,17 +686,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF595908-C821-F948-8537-FB6D0483D4F8}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -636,84 +709,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46418874-9BCC-C74D-B03C-78038D54D280}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -723,17 +858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34BEE92-34DC-214A-A468-222E494F7923}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -745,97 +880,120 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4926A516-E8E5-DC43-9C9B-2A61C14EC092}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -844,17 +1002,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFA2140-E969-8340-92B9-F2B771E79EDB}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="101.5" customWidth="1"/>
+    <col min="2" max="2" width="138.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -867,42 +1025,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="A5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -911,30 +1085,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5728E758-7572-5445-B3C5-A1FF184820EE}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/submission_pack/EGA_policy.xlsx
+++ b/submission_pack/EGA_policy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/work/ega-submissions/submission_pack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A7F6C-A391-FA47-B506-4F4D5612A501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB99871-79C8-9642-B1A1-1C9097629477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1820" windowWidth="30180" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="1820" windowWidth="30180" windowHeight="18860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO DAC" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Notes</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Center_name</t>
-  </si>
-  <si>
-    <t>The center name.</t>
   </si>
   <si>
     <t>Policy_alias</t>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -613,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -621,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -638,14 +635,6 @@
       </c>
       <c r="B5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -725,18 +714,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -749,10 +738,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -768,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -776,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -792,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -825,16 +814,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -859,10 +848,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -881,18 +870,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -900,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -908,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -916,39 +905,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -969,10 +950,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -984,13 +965,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -1005,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1025,58 +1006,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1094,25 +1075,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/submission_pack/EGA_policy.xlsx
+++ b/submission_pack/EGA_policy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/work/ega-submissions/submission_pack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB99871-79C8-9642-B1A1-1C9097629477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7CCBA4-6144-E942-9E8B-92B8F413E017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1820" windowWidth="30180" windowHeight="18860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO DAC" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Notes</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Links to related resources.</t>
   </si>
   <si>
-    <t>Center_name</t>
-  </si>
-  <si>
     <t>Policy_alias</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Policy_ID</t>
   </si>
   <si>
-    <t>The EGA accession for the policy that this data use code should be applied to. Either this or the Policy_alias must be given.</t>
-  </si>
-  <si>
     <t>The alias for the policy that this data use code should be applied to. Either this or the Policy_alias must be given.</t>
   </si>
   <si>
@@ -187,13 +181,19 @@
     <t xml:space="preserve">URL referencing the URL of the Ontology. </t>
   </si>
   <si>
-    <t>The EGA DAC accession. Either this or or DAC_alias must be submitted.</t>
-  </si>
-  <si>
     <t>The alias for this DAC. Either this or or DAC_ID must be submitted.</t>
   </si>
   <si>
     <t>The alias for this policy. Either this or the Policy_ID must be given.</t>
+  </si>
+  <si>
+    <t>The EGA accession for the policy that this data use code should be applied to. If the accession is given no other column is required unless the Policy is to be updated.</t>
+  </si>
+  <si>
+    <t>The EGA DAC accession. Either this or or DAC_alias must be submitted. If the accession is given no other column is required unless the DAC is to be updated.</t>
+  </si>
+  <si>
+    <t>The EGA accession for the policy that this data use code should be applied to, in which case the policy will be updated. Either this or the Policy_alias must be given.</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -644,15 +644,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -664,9 +664,6 @@
       </c>
       <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +676,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -701,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -714,18 +711,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -738,10 +735,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -757,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -765,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -781,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -814,16 +811,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -851,7 +848,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -870,18 +867,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -889,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -897,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -905,31 +902,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -940,20 +937,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -965,16 +962,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -986,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1006,58 +1000,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1069,31 +1063,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
